--- a/resources/韩顺平课程.xlsx
+++ b/resources/韩顺平课程.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\snut-laboratory\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0BD7BB-EAFC-4310-93D7-A6F287BCA210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23DA90-BC4C-47E4-A47F-E6E65DC5616E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="3900" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1826">
   <si>
     <t>P2</t>
   </si>
@@ -5846,8 +5846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426:C567"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="D567" sqref="D567:D569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12171,6 +12171,9 @@
       <c r="C568" s="1">
         <v>0.69861111111111107</v>
       </c>
+      <c r="D568" s="2" t="s">
+        <v>1823</v>
+      </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
@@ -12181,6 +12184,9 @@
       </c>
       <c r="C569" s="1">
         <v>0.43055555555555558</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">

--- a/resources/韩顺平课程.xlsx
+++ b/resources/韩顺平课程.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\snut-laboratory\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0BD7BB-EAFC-4310-93D7-A6F287BCA210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE85603E-7A82-4152-8BAE-1487BBA6B0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1827">
   <si>
     <t>P2</t>
   </si>
@@ -5512,6 +5512,10 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">√ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5846,8 +5850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426:C567"/>
+    <sheetView tabSelected="1" topLeftCell="A706" workbookViewId="0">
+      <selection activeCell="D718" sqref="D718:D719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13668,7 +13672,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>702</v>
       </c>
@@ -13679,7 +13683,7 @@
         <v>0.91805555555555562</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>703</v>
       </c>
@@ -13690,7 +13694,7 @@
         <v>0.36805555555555558</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>704</v>
       </c>
@@ -13701,7 +13705,7 @@
         <v>0.68194444444444446</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>705</v>
       </c>
@@ -13712,7 +13716,7 @@
         <v>0.94444444444444453</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>706</v>
       </c>
@@ -13723,7 +13727,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>707</v>
       </c>
@@ -13734,7 +13738,7 @@
         <v>0.4597222222222222</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>708</v>
       </c>
@@ -13745,7 +13749,7 @@
         <v>0.54027777777777775</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>709</v>
       </c>
@@ -13755,8 +13759,11 @@
       <c r="C712" s="1">
         <v>0.68333333333333324</v>
       </c>
-    </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D712" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>710</v>
       </c>
@@ -13766,8 +13773,11 @@
       <c r="C713" s="1">
         <v>0.59930555555555554</v>
       </c>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D713" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>711</v>
       </c>
@@ -13777,8 +13787,11 @@
       <c r="C714" s="1">
         <v>0.91736111111111107</v>
       </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D714" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>712</v>
       </c>
@@ -13788,8 +13801,11 @@
       <c r="C715" s="1">
         <v>0.61527777777777781</v>
       </c>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D715" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>713</v>
       </c>
@@ -13799,8 +13815,11 @@
       <c r="C716" s="1">
         <v>0.63194444444444442</v>
       </c>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D716" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>714</v>
       </c>
@@ -13810,8 +13829,11 @@
       <c r="C717" s="1">
         <v>0.86944444444444446</v>
       </c>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D717" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>715</v>
       </c>
@@ -13821,8 +13843,11 @@
       <c r="C718" s="1">
         <v>0.64583333333333337</v>
       </c>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D718" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>716</v>
       </c>
@@ -13832,8 +13857,11 @@
       <c r="C719" s="1">
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D719" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>717</v>
       </c>
